--- a/revref_subject.xlsx
+++ b/revref_subject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCA2CFB-5FFB-4004-A567-051AEEE4589D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D909ED11-70F1-48A2-818E-FBB79BD055E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="16920" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="40">
   <si>
     <t>header1</t>
   </si>
@@ -111,9 +111,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Moodleでオンラインテキスト回答の課題を出したい</t>
-  </si>
-  <si>
     <t>特定の学生のみ締め切りを延長したい</t>
   </si>
   <si>
@@ -175,383 +172,10 @@
     <t>subject1_2.png</t>
   </si>
   <si>
-    <t>この状態で［保存してコースに戻る］をクリックすると、各種設定項目がデフォルト値の課題が作成されます
-このままでも課題としては動作しますが、課題の締め切りが自動的に 1 週間後になります
-また答案はファイル提出するようになります
-これらの内容を変更されたい場合は、以降の設定値の説明を参照してください</t>
-  </si>
-  <si>
     <t>設定完了後、［保存して表示する］をクリックしてください</t>
   </si>
   <si>
     <t>subject1_3.png</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;課題の提出開始日や、課題の受付遮断日を指定したい場合等に設定します&lt;br&gt;[有効にする]のチェックボックスにチェックした場合のみ、日時の指定が有効になります&lt;br&gt;各パラメータの説明は以下のとおりです&lt;br&gt;&lt;h4&gt;開始日時&lt;/h4&gt;学生はこの日時以前に課題を提出することはできません&lt;br&gt;&lt;h4&gt;終了日時&lt;/h4&gt;この日時以降に提出された課題は「提出遅延」とマークされます&lt;br&gt;&lt;h4&gt;遮断日時&lt;/h4&gt;設定した場合、この日時以降は課題の提出を受け付けません&lt;br&gt;この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます&lt;br&gt;&lt;h4&gt;次の日時まで私に評定を思い出させる&lt;/h4&gt;課題の評定を完了させる日時です&lt;br&gt;&lt;br&gt;また、「常に説明を表示する」をOFFにしていると、課題の説明が「開始日時」以降に学生に表示されます</t>
-    <rPh sb="29" eb="31">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ウケツケ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>シャダン</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="359" eb="360">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="361" eb="363">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="364" eb="366">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="380" eb="382">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="383" eb="385">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="387" eb="391">
-      <t>カイシニチジ</t>
-    </rPh>
-    <rPh sb="392" eb="394">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="395" eb="397">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="398" eb="400">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subject1_4.png</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="type"&gt;&lt;/a&gt;提出タイプ&lt;/h3&gt;&lt;h4&gt;提出タイプ&lt;/h4&gt;課題の提出方法を「オンラインテキスト入力」か「ファイル提出」か指定します&lt;br&gt;■オンラインテキスト&lt;br&gt;画面で直接テキスト入力して回答させる方法です&lt;br&gt;※オンラインテキストを選択した場合、[語数制限]にて、学生が提出することができる（英語での）最大語数を指定することができます&lt;br&gt;■ファイル提出&lt;br&gt;ファイル提出での回答を求めます&lt;br&gt;※次のパラメータで、提出できるファイル数、サイズ、タイプを指定することができます&lt;br&gt;&lt;br&gt;&lt;h4&gt;最大アップロードファイル数&lt;/h4&gt;提出可能なファイル数の上限です&lt;br&gt;&lt;h4&gt;最大提出サイズ&lt;/h4&gt;アップロード可能なファイルサイズの上限です&lt;br&gt;&lt;h4&gt;許可されるファイルタイプ&lt;/h4&gt;ファイルの拡張子で指定します</t>
-    <rPh sb="78" eb="80">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>ゴスウ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="178" eb="180">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="224" eb="225">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="242" eb="243">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="252" eb="254">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subject1_5.png</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="feedback"&gt;&lt;/a&gt;フィードバックタイプ&lt;/h3&gt;[フィードバックコメント]にチェックを入れた場合、評定者はそれぞれの提出課題にフィードバックコメントを残すことができます&lt;br&gt;&lt;br&gt;その他のパラメータについても必要なものにチェックを入れます&lt;br&gt;&lt;h4&gt;フィードバックタイプ&lt;/h4&gt;■PDF注釈：教師は課題提出の評定時に注釈付きのPDFを作成することができます&lt;br&gt;■オンライン評定ワークシート：教師の課題評定時に学生評点のワークシートをダウンロードおよびアップロードできるようになります&lt;br&gt;■フィードバックファイル：課題の評定時にフィードバックと共にファイルをアップロードすることができます&lt;br&gt;&lt;h4&gt;コメントインライン&lt;/h4&gt;yesにするとオンラインテキストの課題の評定時にフィードバックを入力することができます</t>
-    <rPh sb="112" eb="113">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="166" eb="168">
-      <t>チュウシャク</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>キョウシ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="177" eb="180">
-      <t>ヒョウテイジ</t>
-    </rPh>
-    <rPh sb="181" eb="183">
-      <t>チュウシャク</t>
-    </rPh>
-    <rPh sb="183" eb="184">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="190" eb="192">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subject1_6.png</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="setting"&gt;&lt;/a&gt;提出設定&lt;/h3&gt;ここでは、学生に提出物の削除や差し替えを認めるか、再提出を認めないか等を選択します&lt;br&gt;&lt;h4&gt;学生に提出ボタンのクリックを求める&lt;/h4&gt;※途中の設定変更ができません&lt;br&gt;■Yesの場合（デフォルト）&lt;br&gt;提出時に学生には［課題を提出する］というボタンが表示されます。それをクリックすると、その時の提出物が最終提出物となり、それ以降、学生はその課題について提出物の差し替え、追加、削除を行うことができなくなります。&lt;br&gt;■Noの場合&lt;br&gt;学生は提出済みレポートの変更、削除を行うことができます。ただし、再提出ではないので残るレポートは1通のみとなります。&lt;br&gt;&lt;h4&gt;学生に提出同意書の同意を求める&lt;/h4&gt;　「Yes」にした場合、提出時に学生は、その提出物が自作のものであるという文章にチェックを入れることを求められます&lt;br&gt;&lt;h4&gt;追加提出&lt;/h4&gt;学生が課題を追加提出できるか設定します&lt;br&gt;追加提出の際、学生は［前回の提出をもとに新しい提出を追加する］か［新しい提出を追加する］かを選択することになります&lt;br&gt;また追加提出の可否に関わらず、学生が提出物の差し替え、追加、削除を行うには、遮断日時前（遮断日時未設定の場合も含む）かつ、提出ボタンをクリックしていない（提出ボタン未設定の場合も含む）状態である必要があります&lt;br&gt;&lt;br&gt;■なし：学生が提出できるのは 1 回のみです&lt;br&gt;■手動：教員の操作により、学生に追加提出させることができます&lt;br&gt;■合格するまで自動：課題に設定した合格点に達するまで、学生に追加提出させることができます&lt;br&gt;&lt;h4&gt;最大提出回数&lt;/h4&gt;ここで設定する提出回数に達した場合、学生は提出を再度開くことができないようになります</t>
-    <rPh sb="40" eb="42">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ブツ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ミト</t>
-    </rPh>
-    <rPh sb="60" eb="63">
-      <t>サイテイシュツ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ミト</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="254" eb="256">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="278" eb="279">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="537" eb="538">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="601" eb="603">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="732" eb="734">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="746" eb="748">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="750" eb="754">
-      <t>テイシュツカイスウ</t>
-    </rPh>
-    <rPh sb="755" eb="756">
-      <t>タッ</t>
-    </rPh>
-    <rPh sb="758" eb="760">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="761" eb="763">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="764" eb="766">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="767" eb="769">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="769" eb="770">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subject1_7.png</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="group"&gt;&lt;/a&gt;グループ提出設定&lt;/h3&gt;グループ課題を作成したい場合に、[学生がグループで提出する]をYesにします&lt;br&gt;&lt;br&gt;グループ課題を作成する前に、コースにグループを作って学生をグループ登録しておく必要があります&lt;br&gt;どのグループにも登録されていない学生はデフォルトグループに登録されます&lt;br&gt;&lt;br&gt;※グループ課題の提出物はグループ内で共有され、グループ分けができていないためにデフォルトグループに追加された学生間では、意図しない提出物の共有が起こることがありますので、必ずすべての学生をグループに登録してください&lt;br&gt;必要に応じて、次のパラメータの[Yes][No]を選択します&lt;br&gt;&lt;br&gt;&lt;h4&gt;提出にグループを必要とする&lt;/h4&gt;グループに所属している学生にのみ提出を許可するかどうかを決めます&lt;br&gt;ここを［No］とした場合、参加者の一覧で「グループなし」の学生はデフォルトグループに組み入れられます&lt;br&gt;&lt;br&gt;&lt;h4&gt;グループメンバーすべての提出を必要とする&lt;/h4&gt;[提出設定］の［学生に提出ボタンのクリックを求める］を［Yes］にすると選択可能になります&lt;br&gt;ここを［Yes］にすると提出物はグループ全員が提出ボタンを押すまで下書き状態になります。&lt;br&gt;&lt;br&gt;&lt;h4&gt;学生グループのグルーピング&lt;/h4&gt;コースに複数のグループがあり、その一部のグループにのみ課題を出したい時に使用します&lt;br&gt;予め課題を提出さたいグループをまとめたグルーピングを作成しておく必要があります&lt;br&gt;また課題を対象のグループに限定して出したい場合は、［提出にグループを必要とする］を［Yes］にしておく必要があります</t>
-    <rPh sb="41" eb="43">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="287" eb="289">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="290" eb="291">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="294" eb="295">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="312" eb="314">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subject1_8.png</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="notice"&gt;&lt;/a&gt;通知&lt;/h3&gt;&lt;br&gt;&lt;h4&gt;評定者に提出を通知する&lt;/h4&gt;学生が課題を提出すると教員にメッセージ通知が送信されるように設定したい場合は、Yesにします&lt;br&gt;&lt;h4&gt;提出遅延者に関して評定者に通知する&lt;/h4&gt;学生の課題提出の遅延についての教員へのメッセージ通知が必要な場合、Yesにします&lt;br&gt;&lt;h4&gt;「学生に通知する」のデフォルト設定&lt;/h4&gt;それぞれの学生の評定を行う際、「学生に通知する」チェックボックスをデフォルトでONにしたい場合は、Yesにします</t>
-    <rPh sb="134" eb="136">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="190" eb="191">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="202" eb="204">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="205" eb="207">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="239" eb="241">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="242" eb="244">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="245" eb="246">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="247" eb="248">
-      <t>サイバアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subject1_9.png</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="point"&gt;&lt;/a&gt;評点&lt;/h3&gt;ここでは、最大評点（満点）や合格点、評定方法等を設定します&lt;br&gt;以下を参考に必要なパラメータの設定を行ってください&lt;br&gt;&lt;br&gt;&lt;h4&gt;評点（最大評点）&lt;/h4&gt;最大評点を設定します&lt;br&gt;&lt;h4&gt;評定方法&lt;/h4&gt;評定方法を選択します&lt;br&gt;&lt;h4&gt;評定カテゴリ&lt;/h4&gt;評定表内のカテゴリを選択します&lt;br&gt;&lt;h4&gt;合格点&lt;/h4&gt;合格するために必要な最小評点を決定します&lt;br&gt;&lt;h4&gt;匿名送信&lt;/h4&gt;評定時に学生の個人情報が表示されません&lt;br&gt;&lt;h4&gt;学生から評定者IDを隠す&lt;/h4&gt;課題を評定する教員のIDが表示されず、学生が評定者を確認できません&lt;br&gt;&lt;h4&gt;採点ワークフローを使用する&lt;/h4&gt;学生に公開される前に、評点はワークフローステージに入ります&lt;br&gt;　教員が一連の評点を同じタイミングで学生すべてに公開することができます&lt;br&gt;&lt;br&gt;&lt;h4&gt;採点割り当てを使用する&lt;/h4&gt;この設定と「採点ワークフローを使用する」設定を有効にした場合、個々の学生に採点者を割り振ることができます&lt;br&gt;&lt;br&gt;※[評点]の[タイプ]を[なし]にすることで、評点を設定しないこともできます</t>
-    <rPh sb="70" eb="72">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>マンテン</t>
-    </rPh>
-    <rPh sb="79" eb="82">
-      <t>ゴウカクテン</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="274" eb="276">
-      <t>トクメイ</t>
-    </rPh>
-    <rPh sb="323" eb="325">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="326" eb="328">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="330" eb="332">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="346" eb="348">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="349" eb="352">
-      <t>ヒョウテイシャ</t>
-    </rPh>
-    <rPh sb="353" eb="355">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subject1_10.png</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="module"&gt;&lt;/a&gt;モジュール共通設定&lt;/h3&gt;&lt;br&gt;以下を参考に必要なパラメータの設定を行ってください&lt;br&gt;&lt;h4&gt;利用&lt;/h4&gt;課題を学生に公開するか否かを選択します&lt;br&gt;&lt;h4&gt;ID ナンバー&lt;/h4&gt;評定計算の目的で活動を識別できます&lt;br&gt;評定計算に活動が含まれていない場合、空白のままにすることができます&lt;br&gt;&lt;h4&gt;グループモード&lt;/h4&gt;あらかじめ、学生をいくつかのグループに分けておくと、グループ別に活動を実施するように設定できます&lt;br&gt;　&lt;h4&gt;グループなし&lt;/h4&gt;グループ分けを使用しません&lt;br&gt;　&lt;h4&gt;分離グループ&lt;/h4&gt;グループ別に活動を実施します。学生は、自分のグループ内のみ閲覧できます&lt;br&gt;　&lt;h4&gt;可視グループ&lt;/h4&gt;グループ別に活動を実施します学生は、他のグループを閲覧できます&lt;br&gt;&lt;br&gt;&lt;h4&gt;グルーピング&lt;/h4&gt;グループなしを選択した場合は設定できません。グルーピングを設定した場合、グルーピングに割り当てられたメンバー共同で作業することができます</t>
-  </si>
-  <si>
-    <t>subject1_11.png</t>
   </si>
   <si>
     <t>確認する課題をクリックします</t>
@@ -712,6 +336,82 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>この状態で［保存してコースに戻る］をクリックすると、各種設定項目がデフォルト値の課題が作成されます
+このままでも課題としては動作しますが、課題の締め切りが自動的に 1 週間後になります
+変更したい場合は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「利用」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の設定を変更してください
+また答案はファイル提出するようになります
+変更したい場合は&lt;b&gt;「提出タイプ」&lt;/b&gt;の設定を変更してください</t>
+    </r>
+    <rPh sb="93" eb="95">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Moodleでオンラインテキスト回答の課題を出したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;オンラインテキスト回答の課題の作成&lt;/h3&gt;</t>
+    <rPh sb="16" eb="18">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -828,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,9 +586,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1228,10 +925,10 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.3984375" customWidth="1"/>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1287,9 +984,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1302,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1398,9 +1095,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1413,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1505,13 +1202,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1554,7 +1251,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -1562,7 +1259,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14"/>
@@ -1570,7 +1267,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -1578,31 +1275,31 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="52.8">
+    </row>
+    <row r="12" spans="1:4" ht="72.75">
       <c r="A12" s="1"/>
       <c r="B12" s="18" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -1610,13 +1307,13 @@
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1625,138 +1322,44 @@
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" ht="92.4">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:4" ht="79.2">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
-      <c r="B17" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4" ht="92.4">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
-      <c r="B19" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4" ht="171.6">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
-      <c r="B21" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:4" ht="158.4">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1"/>
-      <c r="B23" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="52.8">
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1"/>
-      <c r="B24" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:4" ht="105.6">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1"/>
-      <c r="B26" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="19"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:4" ht="105.6">
-      <c r="B28" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="21"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
     </row>
@@ -1813,12 +1416,12 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1831,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1860,33 +1463,71 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
+      <c r="B10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="72.75">
       <c r="A12" s="1"/>
+      <c r="B12" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
+      <c r="B13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -1927,9 +1568,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1942,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2132,9 +1773,9 @@
       <selection activeCell="C6" sqref="C6:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2147,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2176,27 +1817,27 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
@@ -2249,9 +1890,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2264,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2360,9 +2001,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2375,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2404,38 +2045,38 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="25" t="s">
-        <v>47</v>
+      <c r="B7" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="25" t="s">
-        <v>50</v>
+      <c r="B8" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="26" t="s">
-        <v>51</v>
+      <c r="B9" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="26" t="s">
-        <v>52</v>
+      <c r="B10" s="25" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="26" t="s">
-        <v>53</v>
+      <c r="B11" s="25" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2479,11 +2120,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2C3C8E-9E38-48CC-90D5-66779FB990D5}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2496,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2525,24 +2166,24 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="25" t="s">
-        <v>47</v>
+      <c r="B7" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="25" t="s">
-        <v>50</v>
+      <c r="B8" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="25" t="s">
-        <v>54</v>
+      <c r="B9" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -2692,9 +2333,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2707,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2796,6 +2437,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -3044,34 +2712,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3088,23 +2748,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/revref_subject.xlsx
+++ b/revref_subject.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D909ED11-70F1-48A2-818E-FBB79BD055E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{C42FB7E4-BB6D-4FD3-9E8E-D741816A1706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="16920" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="6330" activeTab="8" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="p10" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="78">
   <si>
     <t>header1</t>
   </si>
@@ -179,69 +180,6 @@
   </si>
   <si>
     <t>確認する課題をクリックします</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>評定概要</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>]から提出済みの課題の数や、要評定の数等、提出状況を確認することができます</t>
-    </r>
-    <rPh sb="1" eb="5">
-      <t>ヒョウテイガイヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ヨウヒョウテイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="26" eb="30">
-      <t>テイシュツジョウキョウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>個々の学生の提出状況を確認したい場合は、［すべての提出を表示する］をクリックし、一覧から確認します</t>
@@ -415,12 +353,700 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t>この状態で［保存してコースに戻る］をクリックすると、各種設定項目がデフォルト値の課題が作成されます
+このままでも課題としては動作しますが、課題の締め切りが自動的に 1 週間後になります
+変更したい場合は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「利用」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の設定を変更してください</t>
+    </r>
+    <rPh sb="93" eb="95">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>語数を制限したい場合は「語数制限」の「有効にする」にチェックを入れ、語数を入力してください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;b&gt;「提出タイプ」&lt;/b&gt;の「オンラインテキスト」にチェックを入れます
+「ファイル提出」にはデフォルトでチェックが入っていますので、チェックを外してください
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「オンラインテキスト」と「ファイル提出」両方にチェックを入れると、同時に両方の課題を出すこともできます</t>
+    </r>
+    <rPh sb="32" eb="33">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;オンラインテキスト回答の課題&lt;/h3&gt;</t>
+    <rPh sb="16" eb="18">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>課題の回答方法はファイル提出の他にも、オンラインテキストで回答する方法もあります</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウホウテイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;オンラインテキスト&lt;/b&gt;とは、学生がmoodle上のテキストエディタにテキストを入力して課題を提出します</t>
+    <rPh sb="19" eb="21">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subject10.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評定して再提出する方法&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;下書き状態の提出物を強制提出させる方法&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;すべての学生の提出状態をロックしたい場合&lt;/h4&gt;</t>
+    <rPh sb="8" eb="10">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;特定学生の提出状態をロックしたい場合&lt;/h4&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;学生に提出ボタンのクリックを求めるを「Yes」にしている場合&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;学生に提出ボタンのクリックを求めるを「No」にしている場合&lt;/h4&gt;</t>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>課題に遮断日時を設定することで、その日時以降に学生が提出をすることができなくなります</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シャダン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>課題名の下にある「設定」をクリックします</t>
+    <rPh sb="0" eb="3">
+      <t>カダイメイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「利用」&lt;/b&gt;の「遮断日時」の「有効にする」にチェックを入れます</t>
+    <rPh sb="4" eb="6">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>シャダンニチジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現在の日時が自動で入っているので、そのまま「保存してコースに戻る」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「すべての提出を表示する」をクリックします</t>
+    <rPh sb="5" eb="7">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>提出をロックしたい課題を開きます</t>
+    <rPh sb="0" eb="2">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象の学生の「編集」をクリックし、「提出の変更を禁止する」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;u&gt;学生の代わりに提出操作を行うことはできません&lt;/u&gt;が、
+下書き状態（学生が変更可能）のものをロック（学生が変更不可）にすることはできます
+終了日を過ぎて評定のため提出を不可としたい場合、設定してください</t>
+    <rPh sb="80" eb="82">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;特定の学生のみ締め切りを延長する方法&lt;/h3&gt;</t>
+    <rPh sb="20" eb="22">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;1名の学生のみ締め切りを延長する方法&lt;/h4&gt;</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>エンチョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「延長提出期限」&lt;/b&gt;に延長したい日時を入力して、「この状態で提出する」をクリックします</t>
+    <rPh sb="4" eb="6">
+      <t>エンチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>エンチョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;複数の学生の締め切りを延長する方法&lt;/h4&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>エンチョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数名の学生をロックする場合は、「選択」にチェックをいれます</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「選択した行に対して …」&lt;/b&gt;で「提出をロックする」を選択して「Go」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象学生の「選択」にチェックをいれます</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「選択した行に対して …」&lt;/b&gt;で「延長を許可をする」を選択して「Go」をクリックします</t>
+    <rPh sb="22" eb="24">
+      <t>エンチョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象の学生の「編集」をクリックし、「延長を許可をする」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>エンチョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「選択されたすべての提出に関して延長を許可しますか?」というメッセージが表示されたら、「OK」をクリックします</t>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「すべての提出を表示する」をクリックし、提出画面から設定します</t>
+    <rPh sb="5" eb="7">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;提出物を一括ダウンロードする方法&lt;/h3&gt;</t>
+    <rPh sb="18" eb="20">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースから対象の課題を開きます</t>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースから延長したい課題を開きます</t>
+    <rPh sb="5" eb="7">
+      <t>エンチョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースから確認する課題をクリックして開きます</t>
+    <rPh sb="18" eb="19">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>評定概要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]に提出済みの課題の数や、要評定の数等、提出状況が表示されているため確認することができます</t>
+    </r>
+    <rPh sb="1" eb="5">
+      <t>ヒョウテイガイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ヨウヒョウテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>テイシュツジョウキョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左上の「すべての提出をダウンロードする」をクリックすると、提出物がzipファイルでダウンロードされます</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>テイシュツブツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +1131,24 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック "/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -528,7 +1172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,6 +1247,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1089,10 +1736,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E409B84-F8F9-4D28-AB2C-C1040423AB64}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1139,30 +1789,40 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
+      <c r="B11" s="19" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -1175,6 +1835,9 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
+      <c r="B16" s="19" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1"/>
@@ -1202,7 +1865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1299,7 +1962,7 @@
     <row r="12" spans="1:4" ht="72.75">
       <c r="A12" s="1"/>
       <c r="B12" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -1413,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABB89B-389D-4E53-86E8-1C489CE9D7CA}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1434,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1461,97 +2124,133 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="72.75">
+      <c r="B11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="B13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
+      <c r="B14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="21" customFormat="1" ht="40.5">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" s="21" customFormat="1">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" ht="45.75">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1562,10 +2261,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05E85A-61D0-40F4-AA01-CFF3E660149A}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1575,7 +2274,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1610,45 +2309,55 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="19" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
+      <c r="B9" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" s="21" customFormat="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
@@ -1660,31 +2369,41 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
@@ -1702,31 +2421,37 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1"/>
-      <c r="B24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1"/>
@@ -1746,7 +2471,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1"/>
@@ -1754,9 +2479,21 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1"/>
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1770,7 +2507,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1818,7 +2555,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="23" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="21"/>
@@ -1826,7 +2563,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="23" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="21"/>
@@ -1834,7 +2571,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="21"/>
@@ -1884,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9089F704-CCBE-40C1-ACC5-0CEDA6357D57}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B22" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1934,57 +2671,106 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="40.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="21" customFormat="1">
       <c r="A11" s="1"/>
+      <c r="B11" s="19" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="21" customFormat="1">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="21" customFormat="1">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="21" customFormat="1">
       <c r="A15" s="1"/>
+      <c r="B15" s="19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="21" customFormat="1">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1"/>
+      <c r="B21" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2054,7 +2840,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -2062,7 +2848,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -2070,13 +2856,13 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2175,7 +2961,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -2183,7 +2969,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -2329,8 +3115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A035B614-CF96-4EB7-A2EC-21B5C2763673}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -2377,24 +3163,33 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="19" t="s">
+        <v>73</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
+      <c r="B10" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
@@ -2446,24 +3241,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2712,6 +3489,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
@@ -2721,17 +3516,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2748,4 +3532,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/revref_subject.xlsx
+++ b/revref_subject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{C42FB7E4-BB6D-4FD3-9E8E-D741816A1706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF74174C-3B7D-4C00-AE58-B7E0A3E0C545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="6330" activeTab="8" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="6330" activeTab="10" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <sheet name="p10" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
   <si>
     <t>header1</t>
   </si>
@@ -179,9 +178,6 @@
     <t>subject1_3.png</t>
   </si>
   <si>
-    <t>確認する課題をクリックします</t>
-  </si>
-  <si>
     <t>個々の学生の提出状況を確認したい場合は、［すべての提出を表示する］をクリックし、一覧から確認します</t>
     <rPh sb="0" eb="2">
       <t>ココ</t>
@@ -211,9 +207,6 @@
   </si>
   <si>
     <t>一覧画面で、評定したい学生の［評点］ボタンをクリックすると、提出物の採点ページが表示されます</t>
-  </si>
-  <si>
-    <t>［評点］と必要に応じて［フィードバック］を入力し、［保存して次を表示する］をクリックします</t>
   </si>
   <si>
     <r>
@@ -264,16 +257,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>右上の［すべての提出をダウンロードする］を選択します</t>
-    <rPh sb="0" eb="2">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>テイシュツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -605,17 +588,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h4&gt;学生に提出ボタンのクリックを求めるを「Yes」にしている場合&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;学生に提出ボタンのクリックを求めるを「No」にしている場合&lt;/h4&gt;</t>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>課題に遮断日時を設定することで、その日時以降に学生が提出をすることができなくなります</t>
     <rPh sb="0" eb="2">
       <t>カダイ</t>
@@ -1041,12 +1013,247 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>コースから確認する課題をクリックして開きます</t>
+    <rPh sb="18" eb="19">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>［評点］と必要に応じて［フィードバック］を入力します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>［保存して次を表示する］をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>再提出をさせたい場合は、「別の提出を許可する」を「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Yes」に変更してください</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>課題に遮断日時を設定している場合は、&lt;a href="p3.html"&gt;提出の延長&lt;/a&gt;を行う必要があります。</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>サイテイシュツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シャダン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>エンチョウ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>作成中です</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <rPh sb="3" eb="6">
+      <t>サクセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評定後に学生に再提出を求めることができます。</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウテイゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>サイテイシュツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;評定画面で1人ずつ再提出をさせる場合&lt;/h4&gt;</t>
+    <rPh sb="4" eb="8">
+      <t>ヒョウテイガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サイテイシュツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;評定後に一括で学生を指定して再提出をさせる場合&lt;/h4&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>サイテイシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遮断日時を設定していると提出できないため、再提出を設定後に、&lt;a href="p3.html"&gt;提出の延長&lt;/a&gt;を行う必要があります。</t>
+    <rPh sb="0" eb="4">
+      <t>シャダンニチジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>サイテイシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>セッテイゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「評点」ボタンをクリックすると、採点画面が表示されます</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイテン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1148,6 +1355,13 @@
       <name val="MS UI Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1739,10 +1953,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1790,24 +2004,23 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
+      <c r="B8" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>45</v>
+      <c r="B9" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1817,42 +2030,71 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="19" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" s="21" customFormat="1">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" s="21" customFormat="1">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+    </row>
+    <row r="17" spans="1:2" s="21" customFormat="1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2" s="21" customFormat="1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2" s="21" customFormat="1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2" s="21" customFormat="1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1962,7 +2204,7 @@
     <row r="12" spans="1:4" ht="72.75">
       <c r="A12" s="1"/>
       <c r="B12" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -2078,7 +2320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABB89B-389D-4E53-86E8-1C489CE9D7CA}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2097,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2127,19 +2369,19 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="21" customFormat="1">
@@ -2149,7 +2391,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -2197,21 +2439,21 @@
     <row r="16" spans="1:4" s="21" customFormat="1" ht="40.5">
       <c r="A16" s="1"/>
       <c r="B16" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:4" s="21" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:4" ht="45.75">
       <c r="A18" s="1"/>
       <c r="B18" s="25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -2274,7 +2516,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2312,13 +2554,13 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -2326,7 +2568,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -2340,7 +2582,7 @@
     <row r="11" spans="1:4" s="21" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -2348,7 +2590,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
@@ -2356,7 +2598,7 @@
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -2370,7 +2612,7 @@
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
@@ -2378,7 +2620,7 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -2386,7 +2628,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
@@ -2394,7 +2636,7 @@
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
@@ -2402,7 +2644,7 @@
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
@@ -2555,7 +2797,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="21"/>
@@ -2563,7 +2805,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="23" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="21"/>
@@ -2571,7 +2813,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="21"/>
@@ -2672,7 +2914,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2680,7 +2922,7 @@
     <row r="8" spans="1:4" ht="40.5">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -2691,37 +2933,37 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="21" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="21" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="21" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="21" customFormat="1">
       <c r="A15" s="1"/>
       <c r="B15" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2730,37 +2972,37 @@
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="21" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2781,10 +3023,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AD0C60-656B-4B94-AF81-0EA7AC72265E}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B7" sqref="B7:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -2832,7 +3074,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="24" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2840,7 +3082,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -2848,7 +3090,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -2856,20 +3098,26 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="21" customFormat="1" ht="37.5">
       <c r="A11" s="1"/>
       <c r="B11" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="21" customFormat="1">
       <c r="A12" s="1"/>
+      <c r="B12" s="25" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
+      <c r="B13" s="25" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -2894,6 +3142,12 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2906,7 +3160,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2C3C8E-9E38-48CC-90D5-66779FB990D5}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
@@ -2953,7 +3209,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="24" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2961,7 +3217,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -2969,7 +3225,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="24" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -3115,7 +3371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A035B614-CF96-4EB7-A2EC-21B5C2763673}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3164,7 +3420,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -3172,7 +3428,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -3180,7 +3436,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -3188,7 +3444,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3232,12 +3488,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3490,27 +3755,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3535,12 +3794,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_subject.xlsx
+++ b/revref_subject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF74174C-3B7D-4C00-AE58-B7E0A3E0C545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F75614-CA14-4681-9F4E-B406EEB728E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="6330" activeTab="10" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
   <si>
     <t>header1</t>
   </si>
@@ -1025,10 +1025,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>［保存して次を表示する］をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t>再提出をさせたい場合は、「別の提出を許可する」を「</t>
     </r>
@@ -1173,22 +1169,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h4&gt;評定画面で1人ずつ再提出をさせる場合&lt;/h4&gt;</t>
-    <rPh sb="4" eb="8">
-      <t>ヒョウテイガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>サイテイシュツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h4&gt;評定後に一括で学生を指定して再提出をさせる場合&lt;/h4&gt;</t>
     <rPh sb="4" eb="6">
       <t>ヒョウテイ</t>
@@ -1233,18 +1213,160 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「評点」ボタンをクリックすると、採点画面が表示されます</t>
-    <rPh sb="1" eb="3">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サイテン</t>
+    <t>&lt;h4&gt;評定を実施しながら1人ずつ再提出をさせる場合&lt;/h4&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>サイテイシュツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>続けて別の学生を評定する場合は、［保存して次を表示する］をクリックします
+評定を終了する場合は、「変更を保存する」をクリックしてください</t>
+    <rPh sb="0" eb="1">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>再提出をさせたい場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は、「別の提出を許可する」を「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Yes」に変更してください</t>
+    </r>
+    <rPh sb="3" eb="6">
+      <t>サイテイシュツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧画面で、評定したい学生の［評点］ボタンをクリックすると、提出物の採点ページが表示されます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧画面で、再提出させてたい学生の「選択」にチェックを入れます</t>
+    <rPh sb="6" eb="9">
+      <t>サイテイシュツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガクセイ</t>
     </rPh>
     <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「選択した行に対して …」&lt;/b&gt;で「別の提出を許可する」を選択して「Go」をクリックします</t>
+    <rPh sb="22" eb="23">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キョカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1253,7 +1375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1363,6 +1485,13 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1386,7 +1515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1424,12 +1553,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1442,28 +1565,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1484,9 +1589,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1524,7 +1629,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1630,7 +1735,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1772,7 +1877,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1782,14 +1887,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38953DD-C77F-4062-989A-FDF98227C4BA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1842,12 +1945,12 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1889,7 +1992,9 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
@@ -1950,18 +2055,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E409B84-F8F9-4D28-AB2C-C1040423AB64}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2003,7 +2105,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="4"/>
@@ -2011,90 +2113,115 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
-        <v>78</v>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="19" t="s">
-        <v>81</v>
+      <c r="B9" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="19" t="s">
-        <v>79</v>
+      <c r="B11" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>42</v>
+      <c r="B12" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" s="21" customFormat="1">
+      <c r="B13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" s="21" customFormat="1">
+      <c r="B14" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" s="21" customFormat="1">
+      <c r="B15" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" s="21" customFormat="1">
+      <c r="B16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" s="21" customFormat="1">
+      <c r="B17" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26.4">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" s="21" customFormat="1">
+      <c r="B18" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:2" s="21" customFormat="1">
+    <row r="20" spans="1:2">
       <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
+      <c r="B21" s="15" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
-      <c r="B22" s="19" t="s">
-        <v>80</v>
+      <c r="B22" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1"/>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2111,9 +2238,9 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2155,77 +2282,71 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="72.75">
+    <row r="12" spans="1:4" ht="70.8">
       <c r="A12" s="1"/>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
@@ -2264,9 +2385,8 @@
       <c r="A26" s="1"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="20"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="7"/>
@@ -2324,9 +2444,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2366,107 +2486,103 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" s="21" customFormat="1">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="21" customFormat="1">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="21" customFormat="1">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="21" customFormat="1">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="21" customFormat="1" ht="40.5">
+    <row r="16" spans="1:4" ht="39.6">
       <c r="A16" s="1"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" s="21" customFormat="1">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" ht="45.75">
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="44.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2509,9 +2625,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2551,15 +2667,15 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" s="21" customFormat="1">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="4"/>
@@ -2567,21 +2683,21 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" s="21" customFormat="1">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" s="21" customFormat="1">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="4"/>
@@ -2589,7 +2705,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="4"/>
@@ -2611,7 +2727,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="4"/>
@@ -2619,7 +2735,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="4"/>
@@ -2627,7 +2743,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="4"/>
@@ -2746,23 +2862,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B4126F-427D-438D-81C0-4E21B438A36E}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2770,7 +2886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2778,7 +2894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2786,57 +2902,54 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:3">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
@@ -2866,12 +2979,12 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B21:B22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2913,13 +3026,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="40.5">
+    <row r="8" spans="1:4" ht="39.6">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>54</v>
@@ -2932,37 +3045,37 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="21" customFormat="1">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="21" customFormat="1">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="21" customFormat="1">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="21" customFormat="1">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2971,37 +3084,37 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="21" customFormat="1">
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3026,12 +3139,12 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B13"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3073,7 +3186,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="4"/>
@@ -3081,7 +3194,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="4"/>
@@ -3089,7 +3202,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="4"/>
@@ -3097,26 +3210,26 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="21" customFormat="1" ht="37.5">
+    <row r="11" spans="1:4" ht="35.4" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="21" customFormat="1">
+      <c r="B11" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="25" t="s">
-        <v>32</v>
+      <c r="B13" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3161,12 +3274,12 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3208,7 +3321,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="4"/>
@@ -3216,7 +3329,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="4"/>
@@ -3224,8 +3337,8 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="24" t="s">
-        <v>77</v>
+      <c r="B9" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -3375,9 +3488,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3419,7 +3532,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="4"/>
@@ -3427,7 +3540,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="4"/>
@@ -3435,7 +3548,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="4"/>
@@ -3443,7 +3556,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3488,21 +3601,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3755,21 +3859,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3794,9 +3904,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_subject.xlsx
+++ b/revref_subject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F75614-CA14-4681-9F4E-B406EEB728E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D058FF2-9C05-451D-9009-91C94D1D98BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="9" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
   <si>
     <t>header1</t>
   </si>
@@ -132,9 +132,6 @@
   <si>
     <t>提出物を一括ダウンロードしたい</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>評定を手元のExcelなどで行い、結果をmoodleにアップロードして学生に見せたい</t>
   </si>
   <si>
     <t>評定して出来が悪いものについて再提出させたい</t>
@@ -1113,42 +1110,6 @@
     </rPh>
     <rPh sb="88" eb="90">
       <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>作成中です</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <rPh sb="3" eb="6">
-      <t>サクセイチュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1370,12 +1331,339 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>画面左上の「評価者レポートv」をクリックし、「評定表セットアップV」を選択します</t>
+    <rPh sb="23" eb="26">
+      <t>ヒョウテイヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「非表示」をクリックすると学生から隠すことができます</t>
+    <rPh sb="13" eb="15">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースを開き、コース名下の「評定」をクリックします</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評定が完了したら、同じ手順で「表示」をクリックして、学生に評定を公開してください</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象である課題の「操作」欄にある&lt;b&gt;「編集」&lt;/b&gt;をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>評定を手元の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>などで行い、結果を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>moodle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にアップロードして学生に見せたい</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評定を手元のExcelなどで行い、結果をmoodleにアップロードして学生に見せる方法&lt;/h3&gt;</t>
+    <rPh sb="45" eb="47">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ワークシート(Excel)でつけた採点結果をmoodleの成績表に反映させることが可能です&lt;br&gt;
+使用するワークシートはmoodleからダウンロードする必要があります&lt;br&gt;
+ダウンロードするためには設定は必要ですが、学生の課題提出後でもこの設定は可能です</t>
+    <rPh sb="41" eb="43">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;評定ワークシートの設定&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースに入り、課題を開きます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>課題名の下にある「設定」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「フィードバックタイプ」をクリックして開きます</t>
+    <rPh sb="19" eb="20">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「オフライン評定ワークシート」にチェックを入れます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「保存してコースに戻る」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;評定ワークシートのダウンロード&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>課題を開き、「すべての提出を表示する」をクリックします</t>
+    <rPh sb="3" eb="4">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「評定操作」の「選択…」をクリックし、「評定ワークシートをダウンロードする」を選択します</t>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダウンロードした評定ワークシートをExcelで開いて編集、保存します</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;評定ワークシートのアップロード&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「評定操作」の「選択…」をクリックし、「評定ワークシートをアップロードする」を選択します</t>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集したワークシートをドラッグ&amp;ドロップします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「評定ワークシートをアップロードする」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプロードするとき、ワークシートのエンコーディング（文字コード）とセパレータ（区切り文字）の指定が必要です
+編集したファイルが何になっているか確認してください
+メモ帳などのテキストエディタで開くと簡単に確認できます
+文字コードが「ANSI」となっている場合は、moodleに対応していませんので文字コードを「UTF-8」に変更してください</t>
+    <rPh sb="26" eb="28">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「エンコーディング」と「セパレータ」をワークシートに合わせて設定します</t>
+    <rPh sb="26" eb="27">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Moodle内のレコードがスプレッドシートより新しい場合でもレコードの更新を許可します。」にチェックを入れます&lt;br&gt;
+※複数評定者がいるとその人が評定したものを上書きしてしまいますので、ご注意ください</t>
+    <rPh sb="52" eb="53">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>ヒョウテイシャ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,6 +1780,19 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1515,7 +1816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1571,6 +1872,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1589,9 +1899,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1629,7 +1939,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1735,7 +2045,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1877,7 +2187,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1887,12 +2197,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38953DD-C77F-4062-989A-FDF98227C4BA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.3984375" customWidth="1"/>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1942,15 +2252,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94EFC34-CCF3-4398-BDF2-593A3405E5DF}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1963,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1992,15 +2300,17 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="15" t="s">
-        <v>76</v>
+      <c r="B7" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="40.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
@@ -2012,39 +2322,113 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
+      <c r="B11" s="20" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
+      <c r="B12" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
+      <c r="B13" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
+      <c r="B14" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
+      <c r="B15" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="54">
       <c r="A21" s="1"/>
+      <c r="B21" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="27">
+      <c r="B28" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2061,9 +2445,9 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2076,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2106,7 +2490,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2114,7 +2498,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -2122,7 +2506,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2132,56 +2516,56 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="27">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2190,31 +2574,31 @@
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2238,9 +2622,9 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2283,7 +2667,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2291,7 +2675,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="7"/>
@@ -2299,49 +2683,49 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="70.8">
+    </row>
+    <row r="12" spans="1:4" ht="72.75">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2444,9 +2828,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2459,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2489,19 +2873,19 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2511,7 +2895,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2519,7 +2903,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="7"/>
@@ -2527,63 +2911,63 @@
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" t="s">
         <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="39.6">
+    </row>
+    <row r="16" spans="1:4" ht="40.5">
       <c r="A16" s="1"/>
       <c r="B16" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="44.4">
+    <row r="18" spans="1:4" ht="45.75">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2625,14 +3009,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2670,13 +3054,13 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -2684,7 +3068,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -2698,7 +3082,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -2706,7 +3090,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
@@ -2714,7 +3098,7 @@
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -2728,7 +3112,7 @@
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
@@ -2736,7 +3120,7 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -2744,7 +3128,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
@@ -2752,7 +3136,7 @@
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
@@ -2760,7 +3144,7 @@
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
@@ -2868,9 +3252,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2913,21 +3297,21 @@
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7"/>
     </row>
@@ -2982,9 +3366,9 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3027,15 +3411,15 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="39.6">
+    <row r="8" spans="1:4" ht="40.5">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -3046,37 +3430,37 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3085,37 +3469,37 @@
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3142,9 +3526,9 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3187,7 +3571,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -3195,7 +3579,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -3203,7 +3587,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -3211,25 +3595,25 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="35.4" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="35.450000000000003" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3274,12 +3658,12 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3321,37 +3705,41 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="15" t="s">
-        <v>73</v>
+      <c r="B7" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="15" t="s">
-        <v>30</v>
+      <c r="B8" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="15" t="s">
-        <v>76</v>
+      <c r="B9" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
@@ -3488,9 +3876,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3533,7 +3921,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -3541,7 +3929,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -3549,7 +3937,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -3557,7 +3945,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3601,15 +3989,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -3858,7 +4237,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -3876,15 +4255,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3903,7 +4283,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3912,4 +4292,12 @@
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>